--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-races-count.xlsx
@@ -59,7 +59,7 @@
     <t>Morkva1</t>
   </si>
   <si>
-    <t>55 ч. 45 мин. 0 сек.</t>
+    <t>55 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -77,7 +77,7 @@
     <t>DOORb</t>
   </si>
   <si>
-    <t>34 ч. 54 мин. 3 сек.</t>
+    <t>34 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -95,7 +95,7 @@
     <t>urchik</t>
   </si>
   <si>
-    <t>27 ч. 3 мин. 45 сек.</t>
+    <t>27 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -122,7 +122,7 @@
     <t>Speed0034</t>
   </si>
   <si>
-    <t>22 ч. 51 мин. 5 сек.</t>
+    <t>22 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>MrFlag</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 55 сек.</t>
+    <t>27 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 33 сек.</t>
+    <t>15 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -149,7 +149,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>31 ч. 10 мин. 7 сек.</t>
+    <t>31 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -167,7 +167,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 0 сек.</t>
+    <t>22 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -194,7 +194,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -239,7 +239,7 @@
     <t>tritopora</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 41 сек.</t>
+    <t>17 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -275,7 +275,7 @@
     <t>andreitipo</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 33 сек.</t>
+    <t>19 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -302,7 +302,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 33 сек.</t>
+    <t>11 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -320,7 +320,7 @@
     <t>mercy123</t>
   </si>
   <si>
-    <t>19 ч. 1 мин. 58 сек.</t>
+    <t>19 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -626,7 +626,7 @@
     <t>saben_askhat</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 4 сек.</t>
+    <t>7 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -662,7 +662,7 @@
     <t>cmdh</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 9 сек.</t>
+    <t>9 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -707,7 +707,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 9 сек.</t>
+    <t>6 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -734,7 +734,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -743,7 +743,7 @@
     <t>Redkalee</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 16 сек.</t>
+    <t>24 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -770,7 +770,7 @@
     <t>F0oocus</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 34 сек.</t>
+    <t>11 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -779,7 +779,7 @@
     <t>Kantoro</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 34 сек.</t>
+    <t>6 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -824,7 +824,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 6 сек.</t>
+    <t>3 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -851,7 +851,7 @@
     <t>Lulzilla</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 43 сек.</t>
+    <t>6 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -869,7 +869,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -950,7 +950,7 @@
     <t>MisterJay</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 11 сек.</t>
+    <t>8 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -959,7 +959,7 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 0 сек.</t>
+    <t>8 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -1004,7 +1004,7 @@
     <t>Vsesvet</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>108</t>
@@ -1013,7 +1013,7 @@
     <t>xdg-</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 1 сек.</t>
+    <t>8 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1040,7 +1040,7 @@
     <t>aymurza6060</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>M87</t>
@@ -1076,7 +1076,7 @@
     <t>mutext</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 4 сек.</t>
+    <t>7 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1085,7 +1085,7 @@
     <t>Kir_V</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1121,7 +1121,7 @@
     <t>Sebastien</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 21 сек.</t>
+    <t>5 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1148,7 +1148,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 9 сек.</t>
+    <t>3 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1175,7 +1175,7 @@
     <t>saxonnasvyazi</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 33 сек.</t>
+    <t>7 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1211,7 +1211,7 @@
     <t>e2e4</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1265,7 +1265,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1292,7 +1292,7 @@
     <t>Spark31</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 56 сек.</t>
+    <t>7 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>141–143</t>
@@ -1307,7 +1307,7 @@
     <t>wm_is_life</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 8 сек.</t>
+    <t>5 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>HappyHardcore</t>
@@ -1358,7 +1358,7 @@
     <t>lampqweee</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 25 сек.</t>
+    <t>5 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>149–150</t>
@@ -1388,7 +1388,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 29 сек.</t>
+    <t>4 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1415,7 +1415,7 @@
     <t>bulatenkom</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 4 сек.</t>
+    <t>4 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>156</t>
@@ -1442,7 +1442,7 @@
     <t>muhammadali</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 0 сек.</t>
+    <t>4 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>DarkEuge</t>
@@ -1466,7 +1466,7 @@
     <t>NionNet</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 1 сек.</t>
+    <t>5 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>162–163</t>
@@ -1475,7 +1475,7 @@
     <t>DehoffEgor</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>Kenichi</t>
@@ -1526,7 +1526,7 @@
     <t>Chita</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 3 сек.</t>
+    <t>4 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1535,7 +1535,7 @@
     <t>IxC999</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 3 сек.</t>
+    <t>7 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1553,7 +1553,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 24 сек.</t>
+    <t>4 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>Сонь</t>
@@ -1568,7 +1568,7 @@
     <t>Victor_storm</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 2 сек.</t>
+    <t>4 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>EVjGeNiX</t>
@@ -1607,7 +1607,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 7 сек.</t>
+    <t>3 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>179</t>
@@ -1625,7 +1625,7 @@
     <t>Кошечка33</t>
   </si>
   <si>
-    <t>19 ч. 41 мин. 7 сек.</t>
+    <t>19 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1643,7 +1643,7 @@
     <t>kleshna</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 59 сек.</t>
+    <t>7 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1652,7 +1652,7 @@
     <t>Тираэль</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 15 сек.</t>
+    <t>4 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1730,7 +1730,7 @@
     <t>adonA</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 8 сек.</t>
+    <t>4 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>193–194</t>
@@ -1754,7 +1754,7 @@
     <t>smbody</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1796,7 +1796,7 @@
     <t>ruhe</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 1 сек.</t>
+    <t>4 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>FarWin</t>
@@ -1820,7 +1820,7 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 35 сек.</t>
+    <t>4 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1847,7 +1847,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 24 сек.</t>
+    <t>5 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1865,7 +1865,7 @@
     <t>milkmark</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 1 сек.</t>
+    <t>4 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1901,7 +1901,7 @@
     <t>Bhiopk</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 9 сек.</t>
+    <t>3 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>213</t>
@@ -1919,7 +1919,7 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 6 сек.</t>
+    <t>2 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1946,7 +1946,7 @@
     <t>Skupra</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>218–220</t>
@@ -1955,7 +1955,7 @@
     <t>lxndrdnlv</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 6 сек.</t>
+    <t>3 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>tatava</t>
@@ -1994,7 +1994,7 @@
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 0 сек.</t>
+    <t>2 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2045,7 +2045,7 @@
     <t>OggyOne</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>230</t>
@@ -2063,7 +2063,7 @@
     <t>nutipaprivet</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 31 сек.</t>
+    <t>4 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>232</t>
@@ -2072,7 +2072,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 0 сек.</t>
+    <t>5 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2081,7 +2081,7 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 45 сек.</t>
+    <t>3 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2108,7 +2108,7 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2201,7 +2201,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>8 ч. 42 мин. 2 сек.</t>
+    <t>8 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2210,7 +2210,7 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 1 сек.</t>
+    <t>3 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>249</t>
@@ -2219,7 +2219,7 @@
     <t>parfenov</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 21 сек.</t>
+    <t>6 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2243,7 +2243,7 @@
     <t>MindaL</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 16 сек.</t>
+    <t>7 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>253–254</t>
@@ -2276,7 +2276,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 0 сек.</t>
+    <t>6 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2303,7 +2303,7 @@
     <t>vulpinex</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 34 сек.</t>
+    <t>3 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2330,7 +2330,7 @@
     <t>coffeek</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 54 сек.</t>
+    <t>3 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2339,7 +2339,7 @@
     <t>severn</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 44 сек.</t>
+    <t>5 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2381,7 +2381,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 25 сек.</t>
+    <t>5 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2423,7 +2423,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 0 сек.</t>
+    <t>4 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>274</t>
@@ -2432,7 +2432,7 @@
     <t>wilsonept</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>275</t>
@@ -2471,7 +2471,7 @@
     <t>Jamie_Randall</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 36 сек.</t>
+    <t>6 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>280–281</t>
@@ -2486,7 +2486,7 @@
     <t>andech</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 28 сек.</t>
+    <t>3 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2573,7 +2573,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2591,7 +2591,7 @@
     <t>ilchu</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 20 сек.</t>
+    <t>4 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>ГДВ</t>
@@ -2612,7 +2612,7 @@
     <t>stuk_alex</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 5 сек.</t>
+    <t>4 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>298</t>
@@ -2681,7 +2681,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>Пиво</t>
@@ -2711,7 +2711,7 @@
     <t>madhoney123</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 2 сек.</t>
+    <t>4 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>310</t>
@@ -2729,7 +2729,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>312</t>
@@ -2747,7 +2747,7 @@
     <t>phlegmone</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 7 сек.</t>
+    <t>5 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>314</t>
@@ -2765,7 +2765,7 @@
     <t>nardist01</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 7 сек.</t>
+    <t>6 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>316–317</t>
@@ -2822,7 +2822,7 @@
     <t>Nitive</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>323</t>
@@ -2831,7 +2831,7 @@
     <t>Sergey_Perm</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 9 сек.</t>
+    <t>2 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2876,7 +2876,7 @@
     <t>Timurito</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 45 сек.</t>
+    <t>3 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -2960,7 +2960,7 @@
     <t>Sofi15050888</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 1 сек.</t>
+    <t>3 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>Vantuvir</t>
@@ -2975,7 +2975,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 29 сек.</t>
+    <t>2 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>341</t>
@@ -2993,7 +2993,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3002,7 +3002,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 36 сек.</t>
+    <t>1 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3029,7 +3029,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 1 сек.</t>
+    <t>3 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>k4noise</t>
@@ -3041,7 +3041,7 @@
     <t>vallery2000</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 18 сек.</t>
+    <t>2 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -3065,7 +3065,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>6 ч. 33 мин. 4 сек.</t>
+    <t>6 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>352</t>
@@ -3092,7 +3092,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 7 сек.</t>
+    <t>3 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3101,7 +3101,7 @@
     <t>kvdum</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 7 сек.</t>
+    <t>2 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3119,7 +3119,7 @@
     <t>loject</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 39 сек.</t>
+    <t>3 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3128,7 +3128,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 15 сек.</t>
+    <t>2 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3137,7 +3137,7 @@
     <t>Phemmer</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 20 сек.</t>
+    <t>2 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>360</t>
@@ -3146,7 +3146,7 @@
     <t>zhanna_zzz</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 6 сек.</t>
+    <t>8 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>361–362</t>
@@ -3197,7 +3197,7 @@
     <t>AccuracyFirst</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 8 сек.</t>
+    <t>2 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -3233,7 +3233,7 @@
     <t>droom</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -3260,7 +3260,7 @@
     <t>Awyra2</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3353,7 +3353,7 @@
     <t>Tottiwa</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>386–387</t>
@@ -3383,7 +3383,7 @@
     <t>BrainDrain</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
@@ -3410,7 +3410,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 30 сек.</t>
+    <t>2 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3443,7 +3443,7 @@
     <t>budeyshin</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 0 сек.</t>
+    <t>1 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>Cat_Lady</t>
@@ -3458,7 +3458,7 @@
     <t>zujen</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 41 сек.</t>
+    <t>2 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>Игорка</t>
@@ -3482,7 +3482,7 @@
     <t>x-sakaev</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 51 сек.</t>
+    <t>6 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>kama3547</t>
@@ -3509,7 +3509,7 @@
     <t>screepa</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 6 сек.</t>
+    <t>2 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>Donaldo</t>
@@ -3530,7 +3530,7 @@
     <t>Клоподав</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 51 сек.</t>
+    <t>3 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>410–411</t>
@@ -3539,13 +3539,13 @@
     <t>lolka228ss</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 6 сек.</t>
+    <t>2 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>оральныйДемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 25 сек.</t>
+    <t>2 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3572,7 +3572,7 @@
     <t>nikogo</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 49 сек.</t>
+    <t>3 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>nxoig</t>
@@ -3593,7 +3593,7 @@
     <t>freelancerUz</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>Serhio97</t>
@@ -3608,7 +3608,7 @@
     <t>exektc</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 34 сек.</t>
+    <t>3 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3617,7 +3617,7 @@
     <t>topkek</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 4 сек.</t>
+    <t>1 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>421–422</t>
@@ -3659,7 +3659,7 @@
     <t>sashokcool</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 42 сек.</t>
+    <t>5 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>426–427</t>
@@ -3668,7 +3668,7 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>_VR_</t>
@@ -3683,7 +3683,7 @@
     <t>mynque</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>429</t>
@@ -3749,7 +3749,7 @@
     <t>nuvvse</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 3 сек.</t>
+    <t>4 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>438</t>
@@ -3758,7 +3758,7 @@
     <t>blitz_en</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 1 сек.</t>
+    <t>4 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>439</t>
@@ -3809,7 +3809,7 @@
     <t>unehend</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 2 сек.</t>
+    <t>2 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>445</t>
@@ -3860,19 +3860,19 @@
     <t>David_96</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 57 сек.</t>
+    <t>5 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>icelin</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 0 сек.</t>
+    <t>1 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>Waleria</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 37 сек.</t>
+    <t>2 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>453–455</t>
@@ -3902,7 +3902,7 @@
     <t>NoNesmer</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 6 сек.</t>
+    <t>1 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>plyaj519</t>
@@ -3926,13 +3926,13 @@
     <t>-insOMnia-</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 15 сек.</t>
+    <t>3 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>brolnickij</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>461</t>
@@ -3941,7 +3941,7 @@
     <t>Murad_Kips</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 26 сек.</t>
+    <t>6 ч. 00 мин. 26 сек.</t>
   </si>
   <si>
     <t>462</t>
@@ -4031,7 +4031,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 3 сек.</t>
+    <t>1 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4055,7 +4055,7 @@
     <t>smale</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 3 сек.</t>
+    <t>2 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>476–478</t>
@@ -4070,7 +4070,7 @@
     <t>Hexan</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 3 сек.</t>
+    <t>2 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>teacherIgor</t>
@@ -4103,13 +4103,13 @@
     <t>IG3000</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 56 сек.</t>
+    <t>1 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>Rad1</t>
   </si>
   <si>
-    <t>5 ч. 19 мин. 8 сек.</t>
+    <t>5 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4133,7 +4133,7 @@
     <t>nevans</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 3 сек.</t>
+    <t>1 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4157,7 +4157,7 @@
     <t>north_air</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4208,7 +4208,7 @@
     <t>drool</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 0 сек.</t>
+    <t>4 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>maikttt</t>
@@ -4238,7 +4238,7 @@
     <t>Kruzo</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>499</t>
@@ -4256,7 +4256,7 @@
     <t>Ampil</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>501–502</t>
@@ -4265,13 +4265,13 @@
     <t>martast</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 4 сек.</t>
+    <t>2 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>pinkPockemon</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 36 сек.</t>
+    <t>2 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>503</t>
@@ -4280,7 +4280,7 @@
     <t>fayzov</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 3 сек.</t>
+    <t>1 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>504–506</t>
@@ -4310,7 +4310,7 @@
     <t>Cevorodis</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 7 сек.</t>
+    <t>4 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>508–509</t>
@@ -4334,7 +4334,7 @@
     <t>osipetka</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 32 сек.</t>
+    <t>2 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>manfies</t>
@@ -4349,7 +4349,7 @@
     <t>mishka22</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>aGm</t>
@@ -4382,7 +4382,7 @@
     <t>Aiswer</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>518–519</t>
@@ -4391,7 +4391,7 @@
     <t>Hydrargyrum</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 23 сек.</t>
+    <t>2 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>13uvarov</t>
@@ -4436,7 +4436,7 @@
     <t>omaraga</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 39 сек.</t>
+    <t>4 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>525–526</t>
@@ -4451,7 +4451,7 @@
     <t>BogdanK</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 3 сек.</t>
+    <t>1 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>527</t>
@@ -4490,7 +4490,7 @@
     <t>Хуля</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 4 сек.</t>
+    <t>2 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>532–533</t>
@@ -4541,13 +4541,13 @@
     <t>elektrolobzik</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>JESE_R</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 32 сек.</t>
+    <t>2 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4580,7 +4580,7 @@
     <t>SilverVVolf</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 33 сек.</t>
+    <t>2 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>543</t>
@@ -4589,7 +4589,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -4622,13 +4622,13 @@
     <t>bukasashka</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>valeryani</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>549–551</t>
@@ -4658,7 +4658,7 @@
     <t>sasha00123</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 5 сек.</t>
+    <t>1 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>Barbed</t>
@@ -4721,19 +4721,19 @@
     <t>Irina_25</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 20 сек.</t>
+    <t>2 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>PetWussy</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 5 сек.</t>
+    <t>2 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>Alsim</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 7 сек.</t>
+    <t>1 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>565–566</t>
@@ -4769,7 +4769,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>Pipl</t>
@@ -4790,7 +4790,7 @@
     <t>ZverikK</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>573–574</t>
@@ -4799,7 +4799,7 @@
     <t>Scarface82</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 9 сек.</t>
+    <t>4 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>ТОМА-АТОМНАЯ</t>
@@ -4814,7 +4814,7 @@
     <t>og123AI</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 6 сек.</t>
+    <t>1 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>fedyagor</t>
@@ -4835,7 +4835,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>579</t>
@@ -4868,7 +4868,7 @@
     <t>QQ-Mash</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>583–584</t>
@@ -4883,7 +4883,7 @@
     <t>stay_strong</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 52 сек.</t>
+    <t>2 ч. 04 мин. 52 сек.</t>
   </si>
   <si>
     <t>585–586</t>
@@ -4892,7 +4892,7 @@
     <t>AiDpiv</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 26 сек.</t>
+    <t>2 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>Leolex</t>
@@ -4907,7 +4907,7 @@
     <t>ollu</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>valula</t>
@@ -4922,7 +4922,7 @@
     <t>МакарМуратов</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 26 сек.</t>
+    <t>8 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>отлезь_вова</t>
@@ -4964,7 +4964,7 @@
     <t>ANTggle</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 28 сек.</t>
+    <t>1 ч. 03 мин. 28 сек.</t>
   </si>
   <si>
     <t>Странник</t>
@@ -4976,7 +4976,7 @@
     <t>coffee_machine</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>598–603</t>
@@ -4997,7 +4997,7 @@
     <t>89514105226</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 44 сек.</t>
+    <t>4 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Сыроежкин</t>
@@ -5009,13 +5009,13 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>PVV</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 28 сек.</t>
+    <t>2 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>604–605</t>
@@ -5054,13 +5054,13 @@
     <t>spirit2</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>luminofer</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 3 сек.</t>
+    <t>1 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>Jeggett</t>
@@ -5075,7 +5075,7 @@
     <t>Продается</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 5 сек.</t>
+    <t>1 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>612–614</t>
@@ -5096,7 +5096,7 @@
     <t>bookSir</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 2 сек.</t>
+    <t>1 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>615–617</t>
@@ -5111,7 +5111,7 @@
     <t>samq</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>fu11buster</t>
@@ -5135,7 +5135,7 @@
     <t>novax</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 5 сек.</t>
+    <t>2 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>greyjo</t>
@@ -5147,7 +5147,7 @@
     <t>thomosyan</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>Play4food</t>
@@ -5162,7 +5162,7 @@
     <t>mzda</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 11 сек.</t>
+    <t>1 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>624–625</t>
@@ -5300,7 +5300,7 @@
     <t>Pikachu_Ha</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 9 сек.</t>
+    <t>2 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>644–645</t>
@@ -5315,7 +5315,7 @@
     <t>allfastiko</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 1 сек.</t>
+    <t>1 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>646–648</t>
@@ -5342,13 +5342,13 @@
     <t>john_lennon228</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 12 сек.</t>
+    <t>1 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>lizardking</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>s0lnyshk0</t>
@@ -5372,13 +5372,13 @@
     <t>yapoehal</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 0 сек.</t>
+    <t>2 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>hellomoto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 52 сек.</t>
+    <t>1 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>655</t>
@@ -5387,7 +5387,7 @@
     <t>LADA220876</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 24 сек.</t>
+    <t>2 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>656–657</t>
@@ -5402,7 +5402,7 @@
     <t>YaroslavSh</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 4 сек.</t>
+    <t>1 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>658–659</t>
@@ -5447,7 +5447,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 1 сек.</t>
+    <t>2 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>664–666</t>
@@ -5501,7 +5501,7 @@
     <t>Racer729</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 49 сек.</t>
+    <t>1 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>671–672</t>
@@ -5516,7 +5516,7 @@
     <t>CTuKEP</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 36 сек.</t>
+    <t>2 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>673–676</t>
@@ -5525,7 +5525,7 @@
     <t>xthh</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>Dimazzzz</t>
@@ -5543,7 +5543,7 @@
     <t>Vk625</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 3 сек.</t>
+    <t>0 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>677–678</t>
@@ -5567,7 +5567,7 @@
     <t>Galebickosikasa</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 36 сек.</t>
+    <t>2 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>Sasha_smile</t>
@@ -5591,7 +5591,7 @@
     <t>печеньки</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 0 сек.</t>
+    <t>0 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>684–685</t>
@@ -5600,7 +5600,7 @@
     <t>enyamagazovyt</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 37 сек.</t>
+    <t>1 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>Хаотический</t>
@@ -5639,7 +5639,7 @@
     <t>NoX111</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 59 сек.</t>
+    <t>3 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>691–693</t>
@@ -5681,7 +5681,7 @@
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 22 сек.</t>
+    <t>1 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>697</t>
@@ -5699,7 +5699,7 @@
     <t>Mansur_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>Eric_Ironmaker</t>
@@ -5741,7 +5741,7 @@
     <t>FD70000000</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 42 сек.</t>
+    <t>2 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>UnrealUnity</t>
@@ -5762,7 +5762,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 6 сек.</t>
+    <t>1 ч. 01 мин. 06 сек.</t>
   </si>
   <si>
     <t>A-Cor</t>
@@ -5777,7 +5777,7 @@
     <t>shiroman</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 26 сек.</t>
+    <t>4 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>710–712</t>
@@ -5786,7 +5786,7 @@
     <t>Библиотека</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 3 сек.</t>
+    <t>3 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>rocklabmusiker</t>
@@ -5813,7 +5813,7 @@
     <t>Packito</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>715–719</t>
@@ -5831,7 +5831,7 @@
     <t>angeldeath29</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 28 сек.</t>
+    <t>3 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>Zark_Altair</t>
@@ -5843,7 +5843,7 @@
     <t>napz</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 9 сек.</t>
+    <t>1 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>720</t>
@@ -5891,7 +5891,7 @@
     <t>xifiwejod</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>Troidem</t>
@@ -5903,7 +5903,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>0 ч. 50 мин. 5 сек.</t>
+    <t>0 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>729–731</t>
@@ -5912,7 +5912,7 @@
     <t>alexandr-ftf</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 8 сек.</t>
+    <t>1 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>I_am_robot</t>
@@ -5933,13 +5933,13 @@
     <t>n1c3r</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 6 сек.</t>
+    <t>1 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>denchi</t>
@@ -5960,13 +5960,13 @@
     <t>fedor229</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>vasya555</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 28 сек.</t>
+    <t>2 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>Antonio_Zts</t>
@@ -5996,13 +5996,13 @@
     <t>Leruk</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 7 сек.</t>
+    <t>0 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lokomoko</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 8 сек.</t>
+    <t>1 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>Kemban</t>
@@ -6017,7 +6017,7 @@
     <t>Kettu</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 57 сек.</t>
+    <t>3 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>746–747</t>
@@ -6026,13 +6026,13 @@
     <t>bangcurryabd</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>Игра_слов</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 12 сек.</t>
+    <t>1 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>748–750</t>
@@ -6047,7 +6047,7 @@
     <t>paulzzz</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 41 сек.</t>
+    <t>1 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>giba</t>
@@ -6062,13 +6062,13 @@
     <t>enly1</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 6 сек.</t>
+    <t>0 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>kxinekton</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>753</t>
@@ -6077,7 +6077,7 @@
     <t>SaLatIk</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 11 сек.</t>
+    <t>1 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>754–755</t>
@@ -6086,13 +6086,13 @@
     <t>Nebuchadnezzar</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 26 сек.</t>
+    <t>1 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>Helsereet</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 44 сек.</t>
+    <t>1 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>756–757</t>
@@ -6122,7 +6122,7 @@
     <t>S_T_A_L_K_E_R</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 0 сек.</t>
+    <t>1 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>Kostia_Dobro</t>
@@ -6134,7 +6134,7 @@
     <t>marvelage</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>762–767</t>
@@ -6161,7 +6161,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 52 сек.</t>
+    <t>1 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>Денис3аыпп</t>
@@ -6182,7 +6182,7 @@
     <t>hyperX</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 58 сек.</t>
+    <t>1 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>769–772</t>
@@ -6209,7 +6209,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 2 сек.</t>
+    <t>0 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>773–776</t>
@@ -6269,13 +6269,13 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>alhray</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 17 сек.</t>
+    <t>1 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>783–787</t>
@@ -6317,13 +6317,13 @@
     <t>КВАКША</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 24 сек.</t>
+    <t>2 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Povelitel</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 6 сек.</t>
+    <t>0 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>YLLIACTbIu</t>
@@ -6374,7 +6374,7 @@
     <t>zzzsss</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 7 сек.</t>
+    <t>1 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>данекогурцов</t>
@@ -6386,7 +6386,7 @@
     <t>semenkorolev</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>queezzard</t>
@@ -6395,7 +6395,7 @@
     <t>sun_in_glass</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 7 сек.</t>
+    <t>1 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lena-51</t>
@@ -6419,7 +6419,7 @@
     <t>Wantnonick</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 7 сек.</t>
+    <t>0 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>зхъ</t>
@@ -6473,7 +6473,7 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>813–814</t>
@@ -6542,7 +6542,7 @@
     <t>taff</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 1 сек.</t>
+    <t>0 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>823–829</t>
@@ -6599,7 +6599,7 @@
     <t>moraq</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>Uraniadz</t>
@@ -6614,7 +6614,7 @@
     <t>Likmor</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 43 сек.</t>
+    <t>1 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>supik</t>
@@ -6626,7 +6626,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 0 сек.</t>
+    <t>0 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>Evigvind</t>
@@ -6638,7 +6638,7 @@
     <t>Dilfa</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 34 сек.</t>
+    <t>2 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>838–841</t>
@@ -6659,7 +6659,7 @@
     <t>pholin</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 0 сек.</t>
+    <t>0 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>maestro2809</t>
@@ -6674,7 +6674,7 @@
     <t>_Aectann_</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 4 сек.</t>
+    <t>0 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>Curzuv1</t>
@@ -6695,7 +6695,7 @@
     <t>nakl</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 14 сек.</t>
+    <t>2 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>SupermanKuzma</t>
@@ -6707,19 +6707,19 @@
     <t>xetd71</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 8 сек.</t>
+    <t>3 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>GreenMine</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 7 сек.</t>
+    <t>0 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>Berkana</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 37 сек.</t>
+    <t>1 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>850–852</t>
@@ -6728,7 +6728,7 @@
     <t>GhostInside</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 4 сек.</t>
+    <t>0 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>Accismus</t>
@@ -6740,7 +6740,7 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 38 сек.</t>
+    <t>1 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>853–856</t>
@@ -6755,7 +6755,7 @@
     <t>migo</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 48 сек.</t>
+    <t>1 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>sk1pss</t>
@@ -6794,7 +6794,7 @@
     <t>jhop</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 12 сек.</t>
+    <t>2 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>Gurerus</t>
@@ -6815,7 +6815,7 @@
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 5 сек.</t>
+    <t>0 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>864–865</t>
@@ -6824,13 +6824,13 @@
     <t>Shivaki</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>pblk</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>866–870</t>
@@ -6857,7 +6857,7 @@
     <t>lar_k</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 43 сек.</t>
+    <t>1 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Стасян1996</t>
@@ -6872,7 +6872,7 @@
     <t>batyrkhan4ik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 22 сек.</t>
+    <t>1 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>mrhitman47</t>
@@ -6887,7 +6887,7 @@
     <t>petrochen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>Igem</t>
@@ -6902,7 +6902,7 @@
     <t>sultanfect</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>dumb</t>
@@ -6914,7 +6914,7 @@
     <t>baalexxx</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 9 сек.</t>
+    <t>3 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>879–880</t>
@@ -6944,7 +6944,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>winix</t>
@@ -6980,7 +6980,7 @@
     <t>Bulo4kasmyasom</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 4 сек.</t>
+    <t>2 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>IlYanin</t>
@@ -7001,7 +7001,7 @@
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 51 сек.</t>
+    <t>1 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>lefruitit</t>
@@ -7019,7 +7019,7 @@
     <t>AG1</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 55 сек.</t>
+    <t>2 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>Iva_</t>
@@ -7052,7 +7052,7 @@
     <t>zualex32</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>VitalityV1nT</t>
@@ -7082,7 +7082,7 @@
     <t>Dyooxa</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 4 сек.</t>
+    <t>0 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>Wasily</t>
@@ -7094,7 +7094,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 28 сек.</t>
+    <t>1 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>NeviD</t>
@@ -7112,13 +7112,13 @@
     <t>salivan1995</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 9 сек.</t>
+    <t>1 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>Shikari_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 29 сек.</t>
+    <t>2 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>nikita25</t>
@@ -7151,7 +7151,7 @@
     <t>ayarayarovich</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 2 сек.</t>
+    <t>1 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>ygun</t>
@@ -7214,7 +7214,7 @@
     <t>h0rr0r</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 58 сек.</t>
+    <t>1 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>Толян</t>
@@ -7235,7 +7235,7 @@
     <t>Tan_ker</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>Frostegg</t>
@@ -7262,13 +7262,13 @@
     <t>baser42</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 2 сек.</t>
+    <t>2 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>SkiperUA</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>932</t>
@@ -7277,7 +7277,7 @@
     <t>Lexx345</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 42 сек.</t>
+    <t>1 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>933–936</t>
@@ -7286,7 +7286,7 @@
     <t>programmer15</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 2 сек.</t>
+    <t>0 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>RiderOfChaos</t>
@@ -7301,7 +7301,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>937–941</t>
@@ -7310,7 +7310,7 @@
     <t>OlegChek</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 9 сек.</t>
+    <t>1 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>hkits</t>
@@ -7334,7 +7334,7 @@
     <t>Мелитина</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>942–944</t>
@@ -7343,7 +7343,7 @@
     <t>JustTrain</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 5 сек.</t>
+    <t>1 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>VQV</t>
@@ -7370,13 +7370,13 @@
     <t>PelmeniEnshtein</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 0 сек.</t>
+    <t>1 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>svoemesto</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 14 сек.</t>
+    <t>1 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>TARAKANAS</t>
@@ -7451,7 +7451,7 @@
     <t>proydenko</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 12 сек.</t>
+    <t>1 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>Rb7</t>
@@ -7469,7 +7469,7 @@
     <t>Lyonov</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 8 сек.</t>
+    <t>1 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>notkamil</t>
@@ -7493,13 +7493,13 @@
     <t>nikbstar</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 6 сек.</t>
+    <t>1 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>tinto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 17 сек.</t>
+    <t>1 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>Meliorius</t>
@@ -7520,7 +7520,7 @@
     <t>Desin</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 1 сек.</t>
+    <t>2 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>GreyCollector</t>
@@ -7541,7 +7541,7 @@
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 9 сек.</t>
+    <t>0 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>ФедяКрузенштерн</t>
@@ -7649,7 +7649,7 @@
     <t>Serpets</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 35 сек.</t>
+    <t>1 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>Deonisiu</t>
@@ -7694,7 +7694,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>Aribo</t>
@@ -7715,7 +7715,7 @@
     <t>for2ne</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 3 сек.</t>
+    <t>1 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>roma2808</t>
@@ -7763,7 +7763,7 @@
     <t>kkspy</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 5 сек.</t>
+    <t>0 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>1006–1010</t>
@@ -7784,7 +7784,7 @@
     <t>holysheep</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Alviya</t>
@@ -7796,7 +7796,7 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>1011–1013</t>
@@ -7844,13 +7844,13 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 7 сек.</t>
+    <t>0 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>one85two</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 6 сек.</t>
+    <t>1 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>Вулфке</t>
@@ -7937,7 +7937,7 @@
     <t>Wedgewood</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 59 сек.</t>
+    <t>1 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>ballaba</t>
@@ -7949,7 +7949,7 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 5 сек.</t>
+    <t>0 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>1034–1036</t>
@@ -7985,7 +7985,7 @@
     <t>МайлзГ</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 6 сек.</t>
+    <t>0 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>985ann</t>
@@ -8009,7 +8009,7 @@
     <t>Декарт</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 17 сек.</t>
+    <t>1 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -8042,7 +8042,7 @@
     <t>новичок16</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 8 сек.</t>
+    <t>1 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>VladykaUA</t>
@@ -8093,7 +8093,7 @@
     <t>Адиль777</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 4 сек.</t>
+    <t>2 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>1057–1067</t>
@@ -8132,7 +8132,7 @@
     <t>AlexKlav</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 46 сек.</t>
+    <t>1 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>клавоинка</t>
@@ -8147,7 +8147,7 @@
     <t>shuko</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 4 сек.</t>
+    <t>2 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>kageneko</t>
@@ -8186,7 +8186,7 @@
     <t>vitalya199529</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 0 сек.</t>
+    <t>1 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>AlexPolos</t>
@@ -8216,7 +8216,7 @@
     <t>kdwkd</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 7 сек.</t>
+    <t>0 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>jcdenton</t>
@@ -8237,7 +8237,7 @@
     <t>1asd</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 7 сек.</t>
+    <t>0 ч. 36 мин. 07 сек.</t>
   </si>
   <si>
     <t>Обгоняша</t>
@@ -8258,13 +8258,13 @@
     <t>Listik_Explus</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 1 сек.</t>
+    <t>0 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>sergiorevazz</t>
   </si>
   <si>
-    <t>0 ч. 20 мин. 0 сек.</t>
+    <t>0 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>daleg</t>
@@ -8276,7 +8276,7 @@
     <t>ilvimafr</t>
   </si>
   <si>
-    <t>0 ч. 26 мин. 6 сек.</t>
+    <t>0 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>WildSK</t>
@@ -8294,7 +8294,7 @@
     <t>boxfrommars</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 54 сек.</t>
+    <t>1 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>1091–1098</t>
@@ -8321,7 +8321,7 @@
     <t>JimTheFish</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 24 сек.</t>
+    <t>1 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>fel111</t>
@@ -8363,7 +8363,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>Frankuj</t>
@@ -8384,7 +8384,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 1 сек.</t>
+    <t>0 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>soofft91</t>
@@ -8399,13 +8399,13 @@
     <t>mafixxxxx</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 0 сек.</t>
+    <t>0 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Just_Monika</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 9 сек.</t>
+    <t>0 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>GordeyM</t>
@@ -8432,13 +8432,13 @@
     <t>annv</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>iguanaz</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 47 сек.</t>
+    <t>2 ч. 09 мин. 47 сек.</t>
   </si>
   <si>
     <t>1115–1121</t>
@@ -8465,7 +8465,7 @@
     <t>kurtyaxa</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 10 сек.</t>
+    <t>1 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>finita777</t>
@@ -8483,7 +8483,7 @@
     <t>fshark</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>1122–1128</t>
@@ -8492,7 +8492,7 @@
     <t>GhostX</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 1 сек.</t>
+    <t>1 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>Amarettto</t>
@@ -8510,7 +8510,7 @@
     <t>4eburaska</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 2 сек.</t>
+    <t>0 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>wantiklor</t>
@@ -8537,7 +8537,7 @@
     <t>karpeka</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 1 сек.</t>
+    <t>1 ч. 31 мин. 01 сек.</t>
   </si>
   <si>
     <t>DrCooker</t>
@@ -8561,7 +8561,7 @@
     <t>bakytbek007</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>1135–1139</t>
@@ -8570,7 +8570,7 @@
     <t>2020OK</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 9 сек.</t>
+    <t>1 ч. 21 мин. 09 сек.</t>
   </si>
   <si>
     <t>daktule</t>
@@ -8606,7 +8606,7 @@
     <t>Leyrus</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 32 сек.</t>
+    <t>1 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>ZeeVi</t>
@@ -8639,7 +8639,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 5 сек.</t>
+    <t>0 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>svshevchenkosv</t>
@@ -8657,7 +8657,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 19 сек.</t>
+    <t>1 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>ancv2000</t>
@@ -8669,7 +8669,7 @@
     <t>sofarewell</t>
   </si>
   <si>
-    <t>0 ч. 37 мин. 7 сек.</t>
+    <t>0 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>OldLeg</t>
@@ -8708,7 +8708,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 12 сек.</t>
+    <t>1 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>1158–1162</t>
@@ -8735,7 +8735,7 @@
     <t>BLACK_RAMA</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 46 сек.</t>
+    <t>1 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>AnticK</t>
@@ -8756,13 +8756,13 @@
     <t>maxim1993</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 9 сек.</t>
+    <t>1 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>Quadrivium</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>1166–1172</t>
@@ -8777,19 +8777,19 @@
     <t>nokkze</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 4 сек.</t>
+    <t>0 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>forward-ok</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 6 сек.</t>
+    <t>1 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>Cinnamon88</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 58 сек.</t>
+    <t>3 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>chernyshov_ip</t>
@@ -8813,13 +8813,13 @@
     <t>-Sid</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>FICHAS</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>tarhan</t>
@@ -8831,7 +8831,7 @@
     <t>Khasanchik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>MMikhotov</t>
@@ -8861,7 +8861,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 7 сек.</t>
+    <t>0 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>1182–1184</t>
@@ -8891,13 +8891,13 @@
     <t>Bacardi333</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>Awooo</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 49 сек.</t>
+    <t>1 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>Noob228</t>
@@ -8909,7 +8909,7 @@
     <t>ja_ja_banx</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 6 сек.</t>
+    <t>0 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>V2S</t>
@@ -8933,7 +8933,7 @@
     <t>egortar</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 7 сек.</t>
+    <t>0 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lena19</t>
@@ -8996,7 +8996,7 @@
     <t>nikpom</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 16 сек.</t>
+    <t>1 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>george_sea</t>
@@ -9068,7 +9068,7 @@
     <t>tws</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 8 сек.</t>
+    <t>0 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>exdark_qwerty</t>
@@ -9086,7 +9086,7 @@
     <t>Cinapc</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 19 сек.</t>
+    <t>1 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>free111</t>
@@ -9125,7 +9125,7 @@
     <t>viktor777s</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 34 сек.</t>
+    <t>1 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>Ваоер</t>
@@ -9137,13 +9137,13 @@
     <t>Player2SE</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 26 сек.</t>
+    <t>1 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>AlexFox</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>sorrovv</t>
@@ -9227,13 +9227,13 @@
     <t>pushka_589889</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 14 сек.</t>
+    <t>1 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>fncg32</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 16 сек.</t>
+    <t>1 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>glvi</t>
@@ -9245,7 +9245,7 @@
     <t>Jellyfishka</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 1 сек.</t>
+    <t>1 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>anzo</t>
@@ -9266,7 +9266,7 @@
     <t>ЕРГ</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 53 сек.</t>
+    <t>1 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>1247–1257</t>
@@ -9275,13 +9275,13 @@
     <t>Mindal2</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 17 сек.</t>
+    <t>1 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>valerikk</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 4 сек.</t>
+    <t>0 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>Pasha1_</t>
@@ -9311,7 +9311,7 @@
     <t>Headbug</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>непотомуль</t>
@@ -9335,7 +9335,7 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 4 сек.</t>
+    <t>0 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>1258–1266</t>
@@ -9353,7 +9353,7 @@
     <t>bremsen</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 4 сек.</t>
+    <t>1 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>KalinaMalina</t>
@@ -9365,7 +9365,7 @@
     <t>Follow_Me</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 3 сек.</t>
+    <t>0 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>Asted</t>
@@ -9440,7 +9440,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 7 сек.</t>
+    <t>0 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>ixolit</t>
@@ -9461,7 +9461,7 @@
     <t>DasParfum</t>
   </si>
   <si>
-    <t>0 ч. 35 мин. 7 сек.</t>
+    <t>0 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>hortus_gnome</t>
@@ -9500,7 +9500,7 @@
     <t>Lucky_Cat</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 5 сек.</t>
+    <t>0 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>1hatedfate</t>
@@ -9527,7 +9527,7 @@
     <t>Almazka</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 12 сек.</t>
+    <t>1 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>vlks</t>
@@ -9575,7 +9575,7 @@
     <t>dampilko</t>
   </si>
   <si>
-    <t>0 ч. 34 мин. 0 сек.</t>
+    <t>0 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>kpekep_1</t>
@@ -9620,7 +9620,7 @@
     <t>Coreee4</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 36 сек.</t>
+    <t>1 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>dagoreda</t>
@@ -9641,7 +9641,7 @@
     <t>Jelik</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 58 сек.</t>
+    <t>1 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>1308–1315</t>
@@ -9650,7 +9650,7 @@
     <t>nowhere_man</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 8 сек.</t>
+    <t>0 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>Лена_1996</t>
@@ -9683,13 +9683,13 @@
     <t>AleksNormal2012</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 43 сек.</t>
+    <t>1 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>tanyaret</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 6 сек.</t>
+    <t>1 ч. 18 мин. 06 сек.</t>
   </si>
   <si>
     <t>1316–1322</t>
@@ -9713,13 +9713,13 @@
     <t>anialPro</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 7 сек.</t>
+    <t>0 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>godmim</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 5 сек.</t>
+    <t>0 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zetas</t>
@@ -9752,13 +9752,13 @@
     <t>Skymikun</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 1 сек.</t>
+    <t>0 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ultinmate</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 0 сек.</t>
+    <t>0 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>maryab</t>
@@ -9887,7 +9887,7 @@
     <t>badik123</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 6 сек.</t>
+    <t>3 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>matveich1337</t>
@@ -9911,7 +9911,7 @@
     <t>tytylik</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 4 сек.</t>
+    <t>1 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>motarokl</t>
@@ -9923,7 +9923,7 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 21 сек.</t>
+    <t>1 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>ибис</t>
@@ -9944,7 +9944,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 44 сек.</t>
+    <t>1 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>CBETJIAHA</t>
@@ -9962,7 +9962,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 3 сек.</t>
+    <t>0 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>1361–1369</t>
@@ -9971,7 +9971,7 @@
     <t>aa3</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 4 сек.</t>
+    <t>0 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>NOVENKY</t>
@@ -10031,7 +10031,7 @@
     <t>ShornDevil</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 5 сек.</t>
+    <t>0 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>NikitaKortes</t>
@@ -10043,7 +10043,7 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 46 сек.</t>
+    <t>1 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>1374–1385</t>
@@ -10100,7 +10100,7 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 6 сек.</t>
+    <t>0 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>pq72jqq1m6</t>
@@ -10109,7 +10109,7 @@
     <t>Sterios</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 1 сек.</t>
+    <t>0 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>1386–1392</t>
@@ -10130,13 +10130,13 @@
     <t>Lookatmybar</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 5 сек.</t>
+    <t>0 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>golyj_jozhik</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 4 сек.</t>
+    <t>0 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>lokidos</t>
@@ -10163,7 +10163,7 @@
     <t>KarimGan</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 7 сек.</t>
+    <t>0 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>neweraa</t>
@@ -10226,7 +10226,7 @@
     <t>Ukr_Top</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>bi_zi</t>
@@ -10238,13 +10238,13 @@
     <t>DarkP1xel337</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 2 сек.</t>
+    <t>0 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>Alex-san</t>
   </si>
   <si>
-    <t>0 ч. 21 мин. 0 сек.</t>
+    <t>0 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>ъуък</t>
@@ -10286,7 +10286,7 @@
     <t>artemsan15</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>Rimer3</t>
@@ -10304,13 +10304,13 @@
     <t>вомбат</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 8 сек.</t>
+    <t>0 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 30 сек.</t>
+    <t>1 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>Smoksmk</t>
@@ -10322,7 +10322,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>0 ч. 19 мин. 1 сек.</t>
+    <t>0 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>ShavgaStas</t>
